--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/25_Denizli_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/25_Denizli_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F533503-6150-47AD-BD1E-3500E50AB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE50883-5F53-48D9-AA6D-AEF7F39AAA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{96169B45-1366-49A7-8212-7E21A11AA349}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{429BE73F-02D4-4782-A754-AE1A87D20C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D649B9C-F5DD-47F5-9527-CDA8EB86FB95}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CBA268A5-2809-46CF-9C36-88611BC65F8E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B8FB92E9-0E74-4B1D-AC32-2885C86FDFF6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{93D2D3F5-502E-4A4D-9DB7-A5634E81115C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{275C74A3-AEF0-4EBF-AFA0-2204F531F8DE}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D99EB0EE-1A5D-4A73-B978-7CDEFD68A675}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{ABC891BE-91FC-4B94-8FEF-818B6E59CC85}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AC0B9122-0282-4B18-8393-7AD4C65D6CEC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C52F7666-EDC0-4363-B88E-BBF0B4E71279}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0D7DC4C1-49C8-4A75-B323-F40D334FB5C8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{561740E5-1B1F-4ECA-B8D4-771F76730C14}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6D22AE05-52CD-4EFD-8F4A-458F6788890A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7247EEBA-FA57-4893-84F7-C59D5DE87C13}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6CDCAE29-4E2D-402E-89EF-C3C54A6E1261}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1999A6A6-7514-4C50-ABED-B34EC10F90F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFAD9C9-20CF-4736-B970-EBFC7D7DAED6}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2608,18 +2608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82AC2551-8A25-4E4A-953B-ACCAE404CB9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C1D4426-BEDA-444C-A271-88E9A848C72A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25F02A2C-58CF-4818-A82B-30285B8E0D10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FCF671E-E0CA-449F-BE5F-132851A2107A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0A12456D-9825-426F-8A01-937C919A8C9F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3FE95C6-AF3E-42DB-901C-B0D05F0F84EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{712A82F0-F93E-417A-B422-9B0CE65B74C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6054A6AB-C161-4B71-A20C-D0B259B31D08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69C55C48-D2AD-439F-999B-EE7E5C799965}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C3BE332-82BD-4D99-A263-4FD93E29A758}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C678C39A-BE66-41B7-93A7-B2E461F3FE6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24B21797-7BA4-4524-BE0A-7FA87B2EAA6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E81DC614-E77F-4DE5-907E-DFB5D8139125}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B0488FD-E21B-4C40-A5A6-802D520FF0AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19C162DC-42C3-41CD-A1AE-2FFC0517C8FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4392B384-CB5C-45B9-9F99-91AB7653FDF8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1A9408B4-9326-4B84-AE70-12C1D4148C25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F759988-518F-4D4A-A3F1-ED4B74266B5D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A64F706-7202-4F86-BD35-A4EE44A369CE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1982A312-5497-44A1-8313-9220F954541B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53AB9A4C-5EFF-4283-B4DC-74C48DCAD09C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19F201AB-636A-4C63-BC03-5E635A2ED0DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B84C466A-A006-41D8-B9A4-5DB75684758F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3C8F6A3-4AC4-4CEA-8DE9-11EF2168B388}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2632,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0000192-17B9-464A-BDDD-9700899F5C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDC4270-29B6-4E81-8925-C72A83255753}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3893,18 +3893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3C88FDE-4063-4285-83DA-1F23F730BF4F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C5FB0F1-BDF5-4EF6-A567-5527DF04B4E5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{17CC787E-792F-4EAB-B3AE-6BB94D1429B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A0CCED1-3088-409A-BD7C-C6E92C6CBF6B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0C377F35-EA81-4A04-89C6-1CEB59863D88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F714F210-7623-4CF8-9332-3324AFC7178D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38B3C055-939A-4262-AACE-B3926769CC71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98D9F0D0-1AB2-483C-8DED-FD8F1C5DCF4A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5233E0C-0172-4AC3-8E2F-39D23A7975EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74B5759F-7FB3-440C-90E2-7E85A2CF84BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F26B233-91BD-45A4-8547-8C367D4A92B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F7A53B3-3CB7-4C55-83B8-FD1A073FA82A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACA0A3A9-14A7-432E-95B7-62B4C6ACEBB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53F4A8DD-79B0-40FE-9DD5-F03B656F418A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{925FFDBC-8107-4451-9A0D-711BE721E7CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BF17F37-1AF6-4EA8-BFAB-B557F8ED4D46}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C0F82325-16FE-4DE2-8BCF-E8C26FBF095A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71404C93-F622-4C83-BE6E-B1F4FAFF1187}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EBBFC18-B3F3-411C-BDC3-E7B9FEAC5346}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0920C9E-01BD-4EB4-81B4-EF259E28D692}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64687858-E61C-4450-95BA-966B7A9EE194}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A270068B-EDC4-444E-94A9-DDBA0AC06002}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A2A7609-9D19-4694-AB51-FB4F8AF8026E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B39197F0-08E0-4949-BA81-314BF0BD12BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8A9E2E-4E17-47AF-B5C2-6D68A9BA8800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0D478E-0F0C-4C6A-BBE2-4D57B324114E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5174,18 +5174,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9D4C80F-72D3-438C-B80E-DFB4ADE85A7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7305F53D-A881-44B0-B16D-56343CC30040}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1ACE23C-474F-4A99-BC7D-3DB3D7FC7170}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A57256C-1676-4BB2-87AC-2D79B7FD18C8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{549196D0-B201-484A-B5BB-B3835F62A3FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74F386EE-AEF0-4E00-A94D-E0664CBF15BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27AFEA41-B993-4086-9CA1-F5359A547E4E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3150595E-1B34-4B71-8829-B86DD63CB833}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C201CCA-7C3F-4EE6-810F-1DD7063315DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64CE118B-BEB3-4FEB-BB39-363921FCD60C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E3217B0-AB89-4776-88D6-D2726CF9CC9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93B4F3B1-79C3-40A3-80BD-B2C8BFD3ED36}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18B8261C-1AE2-4165-9AC0-9E1492B3F65B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EF444ED-314C-4C65-9549-69BD22A67CBA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB554CD8-4B76-48DD-BC88-679E6FC824F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0AB57527-1649-4010-973F-35FA0357A1BB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C87F8450-3D22-4BCB-95F7-3D1980165B12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86C907D2-BC89-476A-9CBF-7F751C11E61A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F851370A-A02E-478F-851A-C20A1CAA22C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2EFD01B1-9430-4231-A7FD-E8F3B9DA5AF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82294C8D-CB47-4137-88D2-753D9D6E9067}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04E2BB6F-5FA3-4573-BDC8-2184D38D5175}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{843CD510-399D-4B2C-A499-9554DD36ADC2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{834CB440-B7E8-4028-B780-9B7EDE0DE816}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5198,7 +5198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436EF404-FC63-4A28-80AD-7605380270B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C74A8B8-AC3D-4EC5-B932-A7FFA6A0E0DF}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6450,18 +6450,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9859E71-078F-4413-9DCC-D677B9351763}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F06A559-EB3F-4775-9FC1-469573FDADD1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1037DD9A-C0D1-4EC1-AE65-AA903E964911}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6873EEBB-8CB8-4EBC-A2CC-E63362F6DAD8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{95BD070D-60E5-4B62-91A1-3726E57A91CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B2296FF-8645-46CA-87CE-D3981CCD7E2F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F9006C9-9D84-489A-874F-26D8E44A1C1B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A08D254-EC09-4609-B566-13B04744E0BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C7A5EB8-1BC2-4E25-AB11-D03B9921A9B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8719A18C-CFCF-481E-8839-C557DAB00801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC8A5F44-D234-4B69-8E2F-E1FF42B744C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE032BA2-06FB-410C-A590-BD326B99198F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB60B8A7-A355-4F18-B53D-778665799488}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95B36096-3BD9-4474-BCFC-BFACBB0C5EF1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38F9CD8D-DAF8-454F-BDD4-0CB332F8DC2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EBFBDE37-A5BF-4766-80AC-D66E13E1C6FB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0EF7F178-D735-481E-B35F-610460C858F6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E35BD480-FA5D-492A-989D-7E79C4A02FA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16B78D1A-449B-4503-9C11-79BF4581B5BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{073C4242-9624-4B2C-A219-785C1802D17A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{259046D6-D856-4486-86DF-C4979FB4BC4E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67DC72DA-9432-4330-94AA-E2A558A387AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93329DC4-040E-4A02-A083-9C3B2D639EDD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0276ACE-4892-47F6-8A3B-B92F682B7BE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6474,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AB5BAC-0620-4868-A4D9-6CCBB232CE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF50F76-046A-442A-BA58-78507A9C6E86}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7751,18 +7751,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{463AD916-D41B-4982-8EB7-6DD3B02E46F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{051BB70D-8664-425C-8C9F-87D3F3C3B9F7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0F2BBCE-E840-46E1-B91E-BCFDD92238B4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{366500B5-E772-45BD-A4FA-14357B0405E0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CF9C384D-2CF7-4C9F-BCA7-7243882D2FA5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAC67EF9-B3F2-4FD4-A125-889B9AFCBAB6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B16F9253-03DA-4B6E-9801-93B12A5C501F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D157813-C72A-4B3C-AD96-5E3D5E925CB6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7DC278E-7D6E-4ECC-B0BA-7500CEC4A9F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDEAB232-185B-41B1-BE09-A2B1FD7EC962}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77082629-707E-498D-B6A2-57739DD91169}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBFAE2AC-0E6F-4871-BFA8-D5979ABF3ADF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8588095-D0BC-4C9D-B0A0-4CA0EDA041FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7F2D7D2-EE62-4601-8368-61B88E8416E5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E6BB5F7-E3D6-440C-A6B1-120629921FC7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E547ED4-9A24-40F7-AE62-7EE4E767D73F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{850E0A78-8B7F-4020-80CA-08F723770D25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D8C2D53-D775-4400-8D26-461D3B8D8307}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18507658-C46C-48C7-ADD1-03FBFAFBC8ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB3BFC16-D571-4A7E-8EE6-338B17C28DF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B94E27C-E2A8-47E9-BF41-EA33A7EF052E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70B298FC-58D4-42DE-9F39-DEF0C646AEB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B20D106-DCBE-4975-A5AC-AE3A4A83781E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A49C7DE4-D60A-41C8-AB67-A1199707714F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7775,7 +7775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEF6BFA-1EB3-4385-A043-C2E10D5CFF4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463AFDEF-6866-406C-86FC-E7A07DA8F159}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9048,18 +9048,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9505618B-59CC-4751-97BC-7C639AC19377}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1A86718-ECD5-467B-928D-E03AEE328559}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF5B5597-3B92-4C2E-B9D9-EA481865B6FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B1B4FF4-DCF0-4E01-A865-0982EA6329E4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{28DDD57A-7345-4502-A481-7D9BAE7CDD97}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F38F6A46-F4B2-41C6-8E48-E136F492CED9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C3A3CE3-66BB-4D68-B838-05F52101FD89}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14D6C00B-E113-4936-AD87-925AD0B770AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01F3E4CB-9A19-43E8-BAA5-E30B8376AA26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03AF1AE6-B355-4339-A131-946A9E193652}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{550E3280-CC1D-4FF3-BFE0-7921718F3BA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{344E1F57-778E-4D8F-AB47-743459269C18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B17FCEC7-B27A-4114-AFE0-A4682951561B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B38D623-9257-45BB-B696-9CC7BF2B020F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA064670-222A-4DB7-8601-FC7A9249635A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF7933CB-1B20-40DE-AFD7-9B0C71106190}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4EA51B15-6063-4EDF-B116-433FD079EB95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{792355FB-02B7-430A-9C68-3BA06C0D3E09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2F4C3B9-E3CA-40D8-81DB-257D4FB55F41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89BB4778-C478-4DB1-B4D6-328305FD43F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31927789-C80A-4BAD-B539-CDCA5DC0B819}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F666A58-1B4E-4558-86AE-77C6697B2DC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90FCA68F-3CF0-4072-9D90-A71BB71CBAEE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CBEADD3-6545-4880-AD26-6EA6AB0F2010}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9072,7 +9072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B23B2A-76AF-43B8-8FDC-B770FB79263A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426147D4-960A-4F7F-8D31-8F5F7E20DDE2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10345,18 +10345,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FD0164A-EA42-4AB0-AB26-5076D7246E90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79F388DD-1C40-4AD0-BC2F-D8307FC4B867}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{971E450E-6F9A-4BC9-993B-BBB25F01E488}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0ABB4838-BED2-4095-B69E-14DA5BA03FB6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FFBB4A0A-4BB2-4A44-8A99-6BDB3DDED177}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A26A9D4-80D5-488D-BAAC-F3D8266B42FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AD4F853-07D0-4A2F-9ED7-1955C4F7D3BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4225A18-E7BE-45F8-A04C-B7AFF6AE2B97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B681D749-ADB2-4A15-8B1B-45317557C98E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9258AAE0-69F1-4207-85F1-D9F7D26BE677}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{347A2878-0AC6-46E4-9C55-9DE2EC877BB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13619122-8EFF-4D40-8A88-731C4DE239F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAC93AE0-2769-40C0-AC54-16F5A9BB5CD3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91139663-205B-4C6B-8761-135A7691E6E6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA236A64-5D8A-4A65-9C1E-81DE10BE7CE6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A080353-4775-4C6A-96EB-FB6CF85D41AC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{65BEE6F7-ABAE-443B-AFC0-C4E92ADDBEA2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8936102-6076-4B6C-ADFF-39ADDDC6E57A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3419C1D9-F9FC-40E6-8058-896DF82E8201}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B7A7997-B573-469C-B75D-CCF627D6493C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73ED740B-7DAE-4060-B1F0-CE820E137367}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5503C31-B81B-4308-BED4-2059C9A030EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67DB9221-E016-4D55-BF0E-7D40815D284A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79C0B0B2-7A62-46B0-B78F-4F2BA1C21C53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10369,7 +10369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4308C-DFE0-4E58-82A3-EEB9CB4D3C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3D73B-81C3-42D6-B861-C67230880DF9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11642,18 +11642,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A547109-C625-479B-A7F4-4078E7A25EA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45CC3CC4-E672-4B61-88D4-6E5958BBDFC3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A334534-D491-4E27-8C4E-31D83788B040}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{454DA905-C6F4-4834-A1D8-430439EBE855}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{61DDF5E7-67EC-4865-BC6E-4361C4A7E8DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E0FE134-C762-486F-ACB8-B03098CD3E49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1C55982-7798-4F89-B426-64BDD8E4F575}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7E895B47-1485-4C78-BA72-02169B967202}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54A39038-6F4F-4CC1-8CE2-3BB9BE075E3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{685917D8-CCAA-45FB-979B-A2FA0E83B7A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C538E1BF-6642-4BC4-BA4A-070C1C903C82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C28B33E-5FB8-4BD5-BB4A-40DD8E967ED1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{383A4FFD-EA91-4769-AB33-FD912F01EAE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66DCFE2F-3849-4E32-9A87-48F6787DA99A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BEDB92B-72E4-4205-879F-132A7FF2401D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE1A661F-6B3A-45EA-81A1-75BFC5D93138}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{366F73F6-63F7-4980-86B2-BFF616307948}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05D2D98A-F138-4786-87C8-F4D95821D640}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15428830-099C-4515-9344-0A4337958F49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAE6EB5B-8FFE-44E2-8E4B-A44E96C11ACF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36F0EF82-A4DE-484D-A2FA-90D681A3AC68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA502035-FCCB-4734-B894-B41D72A81FE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFE1D795-1AA5-438B-AEE8-77DE49F9BDBB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71393173-FF31-4446-969B-2F81FF81A42F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11666,7 +11666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2C97CA-C7BB-423F-8B78-C49DCEA1D1B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0F7D65-C8B5-4738-8BF7-8C697E62998B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12939,18 +12939,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC095942-19DB-4D67-8D82-7B4BE4607D91}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58E035F4-BA9E-4E9C-BCA0-4D3CE5C43848}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A39F2EE6-E26C-4BC0-A022-0F2345E6B4B0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89A4D06D-6D56-4C75-96BC-ABA04CF489BD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{05A7DCF3-8AD5-49F4-9C3E-72E152D4B521}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6889E0B-1CCB-474A-8F2D-D01ED1423167}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB0A4B17-E62E-4F68-B66C-8A2ABA7FCC6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7701E161-6927-4C34-8AF3-9C7DE9B0D403}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5793C21-0501-4DDD-B135-B282E967FA8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FA97425-A26F-443E-93E4-A5ADC7123DF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07F8172A-2ADA-4630-A06F-2932DDAFA5EA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6A33C6B-813A-4EFA-ACED-DFC9D0820A38}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{803BCC84-8CC4-4A45-A49B-2097902B8595}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03EC8A11-CFB3-443A-B8F9-56886E602CE0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D0B2CAD-79C2-466F-BCCC-FF081B87AFCF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02614286-5922-407F-894D-B2818DE7DD3C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A0D8A73E-7B94-4B28-B898-6F28443CC660}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4267C5D9-9B09-4B37-875B-20385C7A7BCB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D76E885-132B-4143-A671-F81E398F9040}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7F05559-A3F0-4D52-B042-30C69F503C59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{776BA645-1650-4C74-8D40-8A51D4862D23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{737FA784-B5F5-40D1-9765-CCACEBA02AC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB2CE9A2-8F7F-45B7-BE2E-DE5AFDA99ADA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C027C4B2-324A-4BF3-8D8D-507E8F3AB4DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12963,7 +12963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD88ADCE-73EB-4F8A-9286-D2642F149A96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217C4548-954A-423F-89EB-153CF50F4AA5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14236,18 +14236,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A19075D1-0077-4C9E-8524-463BF89AB41A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8799A9AE-4E45-4E35-A3B1-1A1D6A58C170}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0A4F5FC-3352-4547-8A13-A68D5BC8531F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D34F91A8-21ED-45FA-9D9E-82CE38CBB152}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DA11C738-52EC-40A4-BAE1-4F75E4819F7D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5597374A-0294-4A9A-B3CC-E102BE9A9CE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1049133C-DA64-4459-A574-DD2BF756B456}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B25C45E3-F67F-437D-9F77-6128F86548A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F12DCB11-564C-4E56-8151-3A973070E77F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53987DF8-688D-4184-9FDC-0DCA51CDF4F8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A022F1D-A305-4C5A-AAC0-B914E6A97EDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{938165AF-DCE1-47C1-80B6-DCE20DB24F76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{156487DD-7183-483F-B2ED-C2F5BF015E1A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98A4AB71-12F1-4A55-9007-71BD7C113D46}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E47DB42C-A955-4067-99F7-D05F758D256D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28110434-DC8F-438F-B33E-0345D6C8CE7E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3AD2EBA2-1C0F-4AA5-A1E2-C3E3E699172F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{161630A6-A8F3-4BBC-9E43-91B795C9DA95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE3B0135-92C8-4ABE-BED3-DC66C4E0A480}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D92B5D9F-54F4-4E15-A12F-E253C17B7475}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AAD196A-1B67-45DD-A4F4-BA16E30300BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA355AE2-D5DC-45E9-A187-F9C4145E5B50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71118A3E-19ED-4536-8539-202F4F4590E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A32BD2A0-397E-4BBB-8C0F-688E2BBB20AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14260,7 +14260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7570728D-4CC8-427D-AEF0-03AC5DDB5D63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E5C76B-9522-432C-8585-574F8C759F26}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15529,18 +15529,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2FDF6587-3A33-47C7-B32D-68BBDE8F5AD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53EBF522-544C-4D65-9575-2C9BF053FF8A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{412C2114-7DA7-4B74-AD8F-6C996A142521}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A873DABA-7B96-48E1-A829-C4E544E483CD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D3D69EDD-1D89-439B-AC44-D94331389089}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3414A6D-1179-42D7-8A56-6D377C6C0A22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D9CB535-7943-46C7-8389-0CECB3FF7B41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D51E408B-BFCC-47C0-A6F2-4FC610556326}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4EE2070-7824-454E-BF98-972AE72C3D81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{124F725B-7554-40B6-AE57-D3201BAA4EEA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{597D9BAB-9307-48FD-B31C-D5FF23DB48DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5774A6CB-4BEF-4376-A314-F1E96ED24CE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{554C91FF-5C44-4D5E-9357-95CF0636BEB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E78A4223-B8CA-47DE-B73F-F94E7FCD54A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E03B4C9-5827-46A1-8C73-ECF93EE86D11}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B8C61F3-C469-4416-A21E-9F31EC34A350}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0160E2F6-8B56-4584-B471-480EA92CC6D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C0BBCBE-37EF-4673-B00E-403D6B017D2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D78C6F41-73C9-4346-9109-AC926DA3515E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBCEFC31-D95C-47E1-B8CA-A5F4BB546C91}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{455A7652-E747-4512-AC2A-531D7D14B07B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA290477-B14A-4972-B565-F4F8DE5A5D93}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1075444D-F36B-43D5-82F0-615ACADE151D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64A3F6CE-3D76-4AFC-8082-4AA5BAF08DDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15553,7 +15553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A57966-153F-4792-9ECB-972F353D2C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86793EC1-5C1F-4152-A925-AF68BD7C2871}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16822,18 +16822,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F4EDBB1-1F0A-48EB-AD5E-1895D7DA5683}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6906B847-6FA0-44E9-B764-FC6BE644FDC1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D693BF5A-12A0-4B88-A755-DF805E21048B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2EF8F4A-8B5D-46E4-BD68-1EF663B909DB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{04ED4B1B-3CAA-4AEE-87D7-545EFED16B28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FD34CB6-58CA-4D4E-8F20-EC6A149E25B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09788043-26DF-488E-9FBD-BA261C9BEA15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06A075D0-AA3E-40B1-B632-2FDDC1FBCB13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F3E5221-C4EF-4405-8E49-EBADCAEE046A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E09AF5BF-A27F-40CB-BD03-712B8D8BF465}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AAAC5BF-C135-4813-9269-2B4BDD5CB69F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6893939-14A8-4F53-B545-349BF643C853}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A8C2DCB-B77F-4F59-810B-0BC828FB73E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E563344-6866-4D02-9B32-55DAE3341D99}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A74211B7-E24D-41EE-B15D-3E6B5C068E6E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9068DBE2-9A48-400D-8E52-60DC8E58BEC4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{17CDBE47-42C2-44F3-AF63-347122798486}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51F9442D-EA37-44EE-8F00-AEAC954E50B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2984DC4-7A9E-4CFD-B357-D86880055278}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A44BCAD1-E773-4F7B-B8F3-A90BA2F59204}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30CF7436-5EA2-42E9-AC39-1312EB41EC90}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E5D6D59-1420-4BA9-AECD-B94DDB238CDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{892064E2-BE3E-45C0-A25B-2808BD5DC9FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7231825D-025B-4C87-9BA1-C9CD7788DE3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
